--- a/data/trans_orig/COM_RAPIDA-Edad-trans_orig.xlsx
+++ b/data/trans_orig/COM_RAPIDA-Edad-trans_orig.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Establecimientos de comida rápida en País Vasco</t>
+          <t>Establecimientos de comida rápida en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/COM_RAPIDA-Edad-trans_orig.xlsx
+++ b/data/trans_orig/COM_RAPIDA-Edad-trans_orig.xlsx
@@ -733,32 +733,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5238</t>
+          <t>5753</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3639</t>
+          <t>3918</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7274</t>
+          <t>8025</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>8,11%</t>
+          <t>8,5%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,63%</t>
+          <t>5,79%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>11,26%</t>
+          <t>11,86%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -768,32 +768,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>8001</t>
+          <t>8487</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>5867</t>
+          <t>6266</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>10658</t>
+          <t>11848</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>12,66%</t>
+          <t>12,42%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>9,28%</t>
+          <t>9,17%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>16,86%</t>
+          <t>17,34%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -803,32 +803,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>13239</t>
+          <t>14240</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>10369</t>
+          <t>11119</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>16400</t>
+          <t>17774</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>10,36%</t>
+          <t>10,47%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>8,11%</t>
+          <t>8,18%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>12,83%</t>
+          <t>13,07%</t>
         </is>
       </c>
     </row>
@@ -846,32 +846,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8810</t>
+          <t>9075</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6769</t>
+          <t>7065</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11467</t>
+          <t>11777</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,64%</t>
+          <t>13,41%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,48%</t>
+          <t>10,44%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>17,75%</t>
+          <t>17,41%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -881,32 +881,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11575</t>
+          <t>11905</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>9037</t>
+          <t>8992</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>14513</t>
+          <t>14966</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>18,32%</t>
+          <t>17,42%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>14,3%</t>
+          <t>13,16%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>22,97%</t>
+          <t>21,9%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -916,32 +916,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>20385</t>
+          <t>20979</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>17124</t>
+          <t>17617</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>23919</t>
+          <t>25475</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>15,95%</t>
+          <t>15,43%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>13,4%</t>
+          <t>12,96%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>18,72%</t>
+          <t>18,73%</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>25071</t>
+          <t>26694</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>21662</t>
+          <t>23120</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>29022</t>
+          <t>30331</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>38,8%</t>
+          <t>39,46%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>33,53%</t>
+          <t>34,17%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>44,92%</t>
+          <t>44,83%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -994,32 +994,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>19608</t>
+          <t>19967</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>16332</t>
+          <t>16580</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>22984</t>
+          <t>23704</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>31,03%</t>
+          <t>29,22%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>25,84%</t>
+          <t>24,26%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>36,37%</t>
+          <t>34,69%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1029,32 +1029,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>44679</t>
+          <t>46661</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>40153</t>
+          <t>41820</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>49696</t>
+          <t>52332</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>34,96%</t>
+          <t>34,31%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>31,42%</t>
+          <t>30,75%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>38,88%</t>
+          <t>38,48%</t>
         </is>
       </c>
     </row>
@@ -1072,32 +1072,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>25490</t>
+          <t>26132</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>22140</t>
+          <t>22646</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>28958</t>
+          <t>30065</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>39,45%</t>
+          <t>38,63%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>34,27%</t>
+          <t>33,47%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>44,82%</t>
+          <t>44,44%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1107,32 +1107,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>24012</t>
+          <t>27971</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>20732</t>
+          <t>24199</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>27642</t>
+          <t>32104</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>38,0%</t>
+          <t>40,94%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>32,81%</t>
+          <t>35,42%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>43,74%</t>
+          <t>46,98%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1142,32 +1142,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>49501</t>
+          <t>54103</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>44793</t>
+          <t>48798</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>54585</t>
+          <t>60131</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>38,73%</t>
+          <t>39,79%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>35,05%</t>
+          <t>35,89%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>42,71%</t>
+          <t>44,22%</t>
         </is>
       </c>
     </row>
@@ -1185,17 +1185,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>64609</t>
+          <t>67654</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>64609</t>
+          <t>67654</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>64609</t>
+          <t>67654</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1220,17 +1220,17 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>63195</t>
+          <t>68329</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>63195</t>
+          <t>68329</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>63195</t>
+          <t>68329</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1255,17 +1255,17 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>127804</t>
+          <t>135983</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>127804</t>
+          <t>135983</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>127804</t>
+          <t>135983</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1302,32 +1302,32 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5435</t>
+          <t>6591</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3451</t>
+          <t>4427</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7838</t>
+          <t>9131</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,56%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>4,85%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,9%</t>
+          <t>10,0%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1337,32 +1337,32 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5641</t>
+          <t>7434</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3970</t>
+          <t>5031</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7915</t>
+          <t>10383</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>8,51%</t>
+          <t>8,31%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>5,99%</t>
+          <t>5,62%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>11,94%</t>
+          <t>11,6%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1372,32 +1372,32 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>11075</t>
+          <t>14025</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>8479</t>
+          <t>10634</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>14299</t>
+          <t>17736</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>8,02%</t>
+          <t>7,76%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>10,35%</t>
+          <t>9,81%</t>
         </is>
       </c>
     </row>
@@ -1415,32 +1415,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>12349</t>
+          <t>13518</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9714</t>
+          <t>10426</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>16242</t>
+          <t>17101</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>17,18%</t>
+          <t>14,8%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>13,51%</t>
+          <t>11,42%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>22,59%</t>
+          <t>18,73%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1450,32 +1450,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>11702</t>
+          <t>11944</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>8973</t>
+          <t>9151</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>14820</t>
+          <t>15069</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>17,66%</t>
+          <t>13,35%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>13,54%</t>
+          <t>10,23%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>22,36%</t>
+          <t>16,84%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1485,32 +1485,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>24051</t>
+          <t>25462</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>20148</t>
+          <t>20948</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>28551</t>
+          <t>30413</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>17,41%</t>
+          <t>14,08%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>14,58%</t>
+          <t>11,59%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>20,67%</t>
+          <t>16,82%</t>
         </is>
       </c>
     </row>
@@ -1528,32 +1528,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>25015</t>
+          <t>33041</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>21455</t>
+          <t>28318</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>28787</t>
+          <t>37764</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>34,8%</t>
+          <t>36,18%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,85%</t>
+          <t>31,01%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>40,05%</t>
+          <t>41,35%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1563,32 +1563,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>23893</t>
+          <t>32692</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>20450</t>
+          <t>27710</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>27679</t>
+          <t>37290</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>36,06%</t>
+          <t>36,53%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>30,86%</t>
+          <t>30,96%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>41,77%</t>
+          <t>41,67%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1598,32 +1598,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>48908</t>
+          <t>65733</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>43867</t>
+          <t>59324</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>54136</t>
+          <t>72101</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>35,4%</t>
+          <t>36,35%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>31,75%</t>
+          <t>32,81%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>39,19%</t>
+          <t>39,87%</t>
         </is>
       </c>
     </row>
@@ -1641,32 +1641,32 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>29087</t>
+          <t>38174</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>25468</t>
+          <t>33120</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>33036</t>
+          <t>43066</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>40,46%</t>
+          <t>41,8%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>35,43%</t>
+          <t>36,27%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>45,96%</t>
+          <t>47,16%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1676,32 +1676,32 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>25028</t>
+          <t>37424</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>21484</t>
+          <t>32499</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>28685</t>
+          <t>42699</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>37,77%</t>
+          <t>41,82%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>32,42%</t>
+          <t>36,31%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>43,29%</t>
+          <t>47,71%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1711,32 +1711,32 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>54115</t>
+          <t>75597</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>48765</t>
+          <t>69121</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>59529</t>
+          <t>82525</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>39,17%</t>
+          <t>41,81%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>35,3%</t>
+          <t>38,23%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>43,09%</t>
+          <t>45,64%</t>
         </is>
       </c>
     </row>
@@ -1754,17 +1754,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>71885</t>
+          <t>91325</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>71885</t>
+          <t>91325</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>71885</t>
+          <t>91325</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1789,17 +1789,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>66264</t>
+          <t>89493</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>66264</t>
+          <t>89493</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>66264</t>
+          <t>89493</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1824,17 +1824,17 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>138149</t>
+          <t>180818</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>138149</t>
+          <t>180818</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>138149</t>
+          <t>180818</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -1871,32 +1871,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>11221</t>
+          <t>11571</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>8664</t>
+          <t>8652</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>14766</t>
+          <t>14898</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>11,5%</t>
+          <t>9,15%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>8,88%</t>
+          <t>6,84%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>15,13%</t>
+          <t>11,78%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1906,32 +1906,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>11241</t>
+          <t>12223</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>8982</t>
+          <t>9506</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>14595</t>
+          <t>15689</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>11,23%</t>
+          <t>9,65%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>8,97%</t>
+          <t>7,5%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>14,58%</t>
+          <t>12,38%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1941,32 +1941,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>22462</t>
+          <t>23794</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>18826</t>
+          <t>20201</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>26946</t>
+          <t>28727</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>11,36%</t>
+          <t>9,4%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>9,52%</t>
+          <t>7,98%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>13,63%</t>
+          <t>11,35%</t>
         </is>
       </c>
     </row>
@@ -1984,32 +1984,32 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>18372</t>
+          <t>21917</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15251</t>
+          <t>17828</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>22269</t>
+          <t>26067</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>18,83%</t>
+          <t>17,33%</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>15,63%</t>
+          <t>14,1%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>22,82%</t>
+          <t>20,62%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -2019,32 +2019,32 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>19268</t>
+          <t>22821</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>15819</t>
+          <t>19097</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>23093</t>
+          <t>27280</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>19,24%</t>
+          <t>18,01%</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>15,8%</t>
+          <t>15,07%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>23,06%</t>
+          <t>21,53%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -2054,32 +2054,32 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>37640</t>
+          <t>44738</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>32903</t>
+          <t>39213</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>42394</t>
+          <t>50514</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>19,04%</t>
+          <t>17,67%</t>
         </is>
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>16,64%</t>
+          <t>15,49%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>21,44%</t>
+          <t>19,96%</t>
         </is>
       </c>
     </row>
@@ -2097,32 +2097,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>33891</t>
+          <t>44652</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>29724</t>
+          <t>39148</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>38295</t>
+          <t>50285</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>34,73%</t>
+          <t>35,31%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>30,46%</t>
+          <t>30,96%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>39,24%</t>
+          <t>39,77%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2132,32 +2132,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>34757</t>
+          <t>44022</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>30496</t>
+          <t>38656</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>39012</t>
+          <t>49033</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>34,71%</t>
+          <t>34,75%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>30,46%</t>
+          <t>30,51%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>38,96%</t>
+          <t>38,7%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2167,32 +2167,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>68648</t>
+          <t>88674</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>62658</t>
+          <t>81029</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>75018</t>
+          <t>96360</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>34,72%</t>
+          <t>35,03%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>31,69%</t>
+          <t>32,01%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>37,94%</t>
+          <t>38,07%</t>
         </is>
       </c>
     </row>
@@ -2210,32 +2210,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>34103</t>
+          <t>48303</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>29875</t>
+          <t>42968</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>38344</t>
+          <t>53862</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>34,95%</t>
+          <t>38,2%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>30,61%</t>
+          <t>33,98%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>39,29%</t>
+          <t>42,6%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2245,32 +2245,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>34871</t>
+          <t>47628</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>30603</t>
+          <t>42067</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>38916</t>
+          <t>52692</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>34,82%</t>
+          <t>37,59%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>30,56%</t>
+          <t>33,2%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>38,86%</t>
+          <t>41,59%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2280,32 +2280,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>68974</t>
+          <t>95930</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>63152</t>
+          <t>88112</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>75030</t>
+          <t>103175</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>34,88%</t>
+          <t>37,9%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>31,94%</t>
+          <t>34,81%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>37,95%</t>
+          <t>40,76%</t>
         </is>
       </c>
     </row>
@@ -2323,17 +2323,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>97587</t>
+          <t>126443</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>97587</t>
+          <t>126443</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>97587</t>
+          <t>126443</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2358,17 +2358,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>100136</t>
+          <t>126694</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>100136</t>
+          <t>126694</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>100136</t>
+          <t>126694</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2393,17 +2393,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>197723</t>
+          <t>253136</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>197723</t>
+          <t>253136</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>197723</t>
+          <t>253136</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2440,32 +2440,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>13390</t>
+          <t>12399</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>10674</t>
+          <t>9866</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>16696</t>
+          <t>15651</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>9,48%</t>
+          <t>8,37%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>7,56%</t>
+          <t>6,66%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>11,82%</t>
+          <t>10,57%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2475,32 +2475,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>13428</t>
+          <t>12227</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>10624</t>
+          <t>9500</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>17054</t>
+          <t>15160</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>9,56%</t>
+          <t>8,15%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>7,57%</t>
+          <t>6,33%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>12,15%</t>
+          <t>10,1%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2510,32 +2510,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>26818</t>
+          <t>24626</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>22533</t>
+          <t>20440</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>31532</t>
+          <t>28857</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>9,52%</t>
+          <t>8,26%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>8,0%</t>
+          <t>6,85%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>11,19%</t>
+          <t>9,68%</t>
         </is>
       </c>
     </row>
@@ -2553,32 +2553,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>24852</t>
+          <t>24333</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>21320</t>
+          <t>20230</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>28804</t>
+          <t>28325</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>17,59%</t>
+          <t>16,43%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>15,09%</t>
+          <t>13,66%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>20,39%</t>
+          <t>19,12%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2588,32 +2588,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>23130</t>
+          <t>24076</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>19675</t>
+          <t>20557</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>26901</t>
+          <t>28289</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>16,47%</t>
+          <t>16,04%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>14,01%</t>
+          <t>13,7%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>19,16%</t>
+          <t>18,85%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2623,32 +2623,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>47982</t>
+          <t>48409</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>42237</t>
+          <t>43118</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>53861</t>
+          <t>54238</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>17,03%</t>
+          <t>16,23%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>15,0%</t>
+          <t>14,46%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>19,12%</t>
+          <t>18,19%</t>
         </is>
       </c>
     </row>
@@ -2666,32 +2666,32 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>47769</t>
+          <t>50115</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>42882</t>
+          <t>44957</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>52881</t>
+          <t>55384</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>33,82%</t>
+          <t>33,83%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>30,36%</t>
+          <t>30,35%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>37,44%</t>
+          <t>37,39%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2701,32 +2701,32 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>47282</t>
+          <t>49835</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>42678</t>
+          <t>45059</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>52196</t>
+          <t>55311</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>33,67%</t>
+          <t>33,21%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>30,39%</t>
+          <t>30,02%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>37,17%</t>
+          <t>36,86%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -2736,32 +2736,32 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>95051</t>
+          <t>99950</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>88492</t>
+          <t>93321</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>102212</t>
+          <t>107425</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>33,75%</t>
+          <t>33,52%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>31,42%</t>
+          <t>31,29%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>36,29%</t>
+          <t>36,02%</t>
         </is>
       </c>
     </row>
@@ -2779,32 +2779,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>55239</t>
+          <t>61293</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>49728</t>
+          <t>55696</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>60326</t>
+          <t>66355</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>39,11%</t>
+          <t>41,38%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>35,21%</t>
+          <t>37,6%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>42,71%</t>
+          <t>44,79%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2814,32 +2814,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>56581</t>
+          <t>63937</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>51380</t>
+          <t>58580</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>61314</t>
+          <t>69393</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>40,29%</t>
+          <t>42,6%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>36,59%</t>
+          <t>39,03%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>43,66%</t>
+          <t>46,24%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2849,32 +2849,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>111819</t>
+          <t>125230</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>105063</t>
+          <t>117286</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>119355</t>
+          <t>132343</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>39,7%</t>
+          <t>41,99%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>37,3%</t>
+          <t>39,33%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>42,37%</t>
+          <t>44,38%</t>
         </is>
       </c>
     </row>
@@ -2892,17 +2892,17 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>141250</t>
+          <t>148140</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>141250</t>
+          <t>148140</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>141250</t>
+          <t>148140</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2927,17 +2927,17 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>140420</t>
+          <t>150074</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>140420</t>
+          <t>150074</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>140420</t>
+          <t>150074</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2962,17 +2962,17 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>281670</t>
+          <t>298215</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>281670</t>
+          <t>298215</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>281670</t>
+          <t>298215</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -3009,32 +3009,32 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>10452</t>
+          <t>9766</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>7843</t>
+          <t>7604</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>13220</t>
+          <t>12347</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>8,21%</t>
+          <t>7,51%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>10,38%</t>
+          <t>9,49%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3044,32 +3044,32 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>13374</t>
+          <t>11121</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>10707</t>
+          <t>8634</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>16529</t>
+          <t>14035</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>8,94%</t>
+          <t>7,96%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>7,16%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>11,05%</t>
+          <t>10,04%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3079,32 +3079,32 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>23826</t>
+          <t>20887</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>20086</t>
+          <t>17509</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>28511</t>
+          <t>24508</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>8,6%</t>
+          <t>7,74%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>7,25%</t>
+          <t>6,49%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>10,29%</t>
+          <t>9,08%</t>
         </is>
       </c>
     </row>
@@ -3122,32 +3122,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>24708</t>
+          <t>22320</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>21377</t>
+          <t>18885</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>29164</t>
+          <t>26101</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>19,41%</t>
+          <t>17,16%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>16,79%</t>
+          <t>14,52%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>22,91%</t>
+          <t>20,07%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3157,32 +3157,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>25314</t>
+          <t>21327</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>21683</t>
+          <t>17997</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>30022</t>
+          <t>24711</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>16,92%</t>
+          <t>15,26%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>14,49%</t>
+          <t>12,88%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>20,06%</t>
+          <t>17,68%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3192,32 +3192,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>50021</t>
+          <t>43648</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>43720</t>
+          <t>38854</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>55560</t>
+          <t>48721</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
+          <t>16,18%</t>
+        </is>
+      </c>
+      <c r="V25" s="2" t="inlineStr">
+        <is>
+          <t>14,4%</t>
+        </is>
+      </c>
+      <c r="W25" s="2" t="inlineStr">
+        <is>
           <t>18,06%</t>
-        </is>
-      </c>
-      <c r="V25" s="2" t="inlineStr">
-        <is>
-          <t>15,79%</t>
-        </is>
-      </c>
-      <c r="W25" s="2" t="inlineStr">
-        <is>
-          <t>20,06%</t>
         </is>
       </c>
     </row>
@@ -3235,32 +3235,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>46934</t>
+          <t>45488</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>42228</t>
+          <t>40473</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>52077</t>
+          <t>50139</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>36,86%</t>
+          <t>34,97%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>33,17%</t>
+          <t>31,12%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>40,9%</t>
+          <t>38,55%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3270,32 +3270,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>49696</t>
+          <t>48400</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>44718</t>
+          <t>43856</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>55003</t>
+          <t>52910</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>33,21%</t>
+          <t>34,63%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>29,89%</t>
+          <t>31,38%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>36,76%</t>
+          <t>37,86%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3305,32 +3305,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>96630</t>
+          <t>93887</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>89909</t>
+          <t>87164</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>104405</t>
+          <t>100274</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>34,89%</t>
+          <t>34,79%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>32,46%</t>
+          <t>32,3%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>37,7%</t>
+          <t>37,16%</t>
         </is>
       </c>
     </row>
@@ -3348,32 +3348,32 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>45223</t>
+          <t>52495</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>40224</t>
+          <t>47594</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>50165</t>
+          <t>57350</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>35,52%</t>
+          <t>40,36%</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>31,59%</t>
+          <t>36,59%</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>39,4%</t>
+          <t>44,09%</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
@@ -3383,32 +3383,32 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>61249</t>
+          <t>58918</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>56104</t>
+          <t>54037</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>67496</t>
+          <t>63824</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t>40,93%</t>
+          <t>42,15%</t>
         </is>
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>37,49%</t>
+          <t>38,66%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>45,11%</t>
+          <t>45,67%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
@@ -3418,32 +3418,32 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>106471</t>
+          <t>111413</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>99255</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>114263</t>
+          <t>118340</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
         <is>
-          <t>38,44%</t>
+          <t>41,29%</t>
         </is>
       </c>
       <c r="V27" s="2" t="inlineStr">
         <is>
-          <t>35,84%</t>
+          <t>38,71%</t>
         </is>
       </c>
       <c r="W27" s="2" t="inlineStr">
         <is>
-          <t>41,26%</t>
+          <t>43,86%</t>
         </is>
       </c>
     </row>
@@ -3461,17 +3461,17 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>127317</t>
+          <t>130069</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>127317</t>
+          <t>130069</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>127317</t>
+          <t>130069</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -3496,17 +3496,17 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>149632</t>
+          <t>139766</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>149632</t>
+          <t>139766</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>149632</t>
+          <t>139766</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -3531,17 +3531,17 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>276949</t>
+          <t>269835</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>276949</t>
+          <t>269835</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>276949</t>
+          <t>269835</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -3578,32 +3578,32 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>13762</t>
+          <t>9531</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>10682</t>
+          <t>7495</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>16980</t>
+          <t>12174</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>12,17%</t>
+          <t>9,96%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>9,45%</t>
+          <t>7,84%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>15,02%</t>
+          <t>12,73%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3613,32 +3613,32 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>11462</t>
+          <t>9411</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>8904</t>
+          <t>7372</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>14662</t>
+          <t>12098</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>9,78%</t>
+          <t>8,4%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>7,59%</t>
+          <t>6,58%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>12,51%</t>
+          <t>10,8%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3648,32 +3648,32 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>25224</t>
+          <t>18942</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>21188</t>
+          <t>15720</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>29977</t>
+          <t>22440</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>10,95%</t>
+          <t>9,12%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>9,2%</t>
+          <t>7,57%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>13,02%</t>
+          <t>10,81%</t>
         </is>
       </c>
     </row>
@@ -3691,32 +3691,32 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>15771</t>
+          <t>13382</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>12775</t>
+          <t>10935</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>19298</t>
+          <t>16345</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>13,95%</t>
+          <t>13,99%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>11,3%</t>
+          <t>11,43%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>17,07%</t>
+          <t>17,09%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3726,32 +3726,32 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>18917</t>
+          <t>16548</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>15573</t>
+          <t>13704</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>22754</t>
+          <t>19950</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>16,14%</t>
+          <t>14,78%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>13,28%</t>
+          <t>12,24%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>19,41%</t>
+          <t>17,82%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -3761,32 +3761,32 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>34688</t>
+          <t>29931</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>30173</t>
+          <t>26121</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>39591</t>
+          <t>34292</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>15,06%</t>
+          <t>14,42%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>13,1%</t>
+          <t>12,58%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>17,19%</t>
+          <t>16,52%</t>
         </is>
       </c>
     </row>
@@ -3804,32 +3804,32 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>41594</t>
+          <t>35550</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>36955</t>
+          <t>31765</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>46257</t>
+          <t>39478</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>36,79%</t>
+          <t>37,17%</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>32,69%</t>
+          <t>33,21%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>40,91%</t>
+          <t>41,27%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -3839,32 +3839,32 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>46324</t>
+          <t>44220</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>41802</t>
+          <t>39957</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>51099</t>
+          <t>48556</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>39,51%</t>
+          <t>39,49%</t>
         </is>
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>35,65%</t>
+          <t>35,69%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>43,58%</t>
+          <t>43,36%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
@@ -3874,32 +3874,32 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>87918</t>
+          <t>79771</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>81927</t>
+          <t>74189</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>94585</t>
+          <t>85522</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
         <is>
-          <t>38,17%</t>
+          <t>38,42%</t>
         </is>
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>35,57%</t>
+          <t>35,73%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>41,07%</t>
+          <t>41,19%</t>
         </is>
       </c>
     </row>
@@ -3917,32 +3917,32 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>41937</t>
+          <t>37189</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>37288</t>
+          <t>33448</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>46488</t>
+          <t>41206</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>37,09%</t>
+          <t>38,88%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>32,98%</t>
+          <t>34,97%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>41,12%</t>
+          <t>43,08%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -3952,32 +3952,32 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>40537</t>
+          <t>41791</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>35910</t>
+          <t>37738</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>44899</t>
+          <t>45724</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
-          <t>34,58%</t>
+          <t>37,32%</t>
         </is>
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>30,63%</t>
+          <t>33,7%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>38,3%</t>
+          <t>40,84%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -3987,32 +3987,32 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>82474</t>
+          <t>78980</t>
         </is>
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>76325</t>
+          <t>73599</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>88417</t>
+          <t>84886</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t>35,81%</t>
+          <t>38,04%</t>
         </is>
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>33,14%</t>
+          <t>35,45%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>38,39%</t>
+          <t>40,88%</t>
         </is>
       </c>
     </row>
@@ -4030,17 +4030,17 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>113064</t>
+          <t>95652</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>113064</t>
+          <t>95652</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>113064</t>
+          <t>95652</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -4065,17 +4065,17 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>117241</t>
+          <t>111970</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>117241</t>
+          <t>111970</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>117241</t>
+          <t>111970</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
@@ -4100,17 +4100,17 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>230304</t>
+          <t>207623</t>
         </is>
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>230304</t>
+          <t>207623</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>230304</t>
+          <t>207623</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
@@ -4147,32 +4147,32 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>6571</t>
+          <t>5834</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>4737</t>
+          <t>4238</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>8832</t>
+          <t>7902</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>7,26%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>5,27%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>9,01%</t>
+          <t>9,83%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -4182,32 +4182,32 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>11964</t>
+          <t>9866</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>9377</t>
+          <t>7694</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>14767</t>
+          <t>12422</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
         <is>
-          <t>8,97%</t>
+          <t>7,83%</t>
         </is>
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>7,03%</t>
+          <t>6,1%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>11,07%</t>
+          <t>9,86%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -4217,32 +4217,32 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>18535</t>
+          <t>15700</t>
         </is>
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>15177</t>
+          <t>12928</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>22176</t>
+          <t>18955</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>7,61%</t>
         </is>
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>6,56%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>9,58%</t>
+          <t>9,18%</t>
         </is>
       </c>
     </row>
@@ -4260,32 +4260,32 @@
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>16902</t>
+          <t>12099</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>13428</t>
+          <t>9649</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>20342</t>
+          <t>14776</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>17,24%</t>
+          <t>15,05%</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>13,69%</t>
+          <t>12,0%</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>20,74%</t>
+          <t>18,38%</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
@@ -4295,32 +4295,32 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>22220</t>
+          <t>18492</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>19048</t>
+          <t>15532</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>26515</t>
+          <t>21626</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
         <is>
-          <t>16,66%</t>
+          <t>14,67%</t>
         </is>
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>14,29%</t>
+          <t>12,32%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>19,89%</t>
+          <t>17,16%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
@@ -4330,32 +4330,32 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>39121</t>
+          <t>30591</t>
         </is>
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>34336</t>
+          <t>26997</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>44840</t>
+          <t>34618</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
         <is>
-          <t>16,91%</t>
+          <t>14,82%</t>
         </is>
       </c>
       <c r="V35" s="2" t="inlineStr">
         <is>
-          <t>14,84%</t>
+          <t>13,08%</t>
         </is>
       </c>
       <c r="W35" s="2" t="inlineStr">
         <is>
-          <t>19,38%</t>
+          <t>16,77%</t>
         </is>
       </c>
     </row>
@@ -4373,32 +4373,32 @@
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>37844</t>
+          <t>29734</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>33359</t>
+          <t>26466</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>41890</t>
+          <t>33415</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>38,59%</t>
+          <t>36,98%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>34,02%</t>
+          <t>32,92%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>42,72%</t>
+          <t>41,56%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
@@ -4408,27 +4408,27 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>48410</t>
+          <t>45989</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>43843</t>
+          <t>41109</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>53587</t>
+          <t>50648</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
         <is>
-          <t>36,31%</t>
+          <t>36,49%</t>
         </is>
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>32,88%</t>
+          <t>32,62%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
@@ -4443,32 +4443,32 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>86254</t>
+          <t>75723</t>
         </is>
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>79554</t>
+          <t>70714</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>92850</t>
+          <t>81876</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
         <is>
-          <t>37,28%</t>
+          <t>36,68%</t>
         </is>
       </c>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>34,38%</t>
+          <t>34,25%</t>
         </is>
       </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
-          <t>40,13%</t>
+          <t>39,66%</t>
         </is>
       </c>
     </row>
@@ -4486,32 +4486,32 @@
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>36743</t>
+          <t>32736</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>32438</t>
+          <t>29433</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>40950</t>
+          <t>36347</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>37,47%</t>
+          <t>40,71%</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>33,08%</t>
+          <t>36,61%</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>41,76%</t>
+          <t>45,21%</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
@@ -4521,32 +4521,32 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>50745</t>
+          <t>51687</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>46227</t>
+          <t>47260</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>55519</t>
+          <t>56566</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
         <is>
-          <t>38,06%</t>
+          <t>41,01%</t>
         </is>
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>34,67%</t>
+          <t>37,5%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>41,64%</t>
+          <t>44,88%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
@@ -4556,32 +4556,32 @@
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>87489</t>
+          <t>84423</t>
         </is>
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>81178</t>
+          <t>79024</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>94379</t>
+          <t>90360</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
         <is>
-          <t>37,81%</t>
+          <t>40,9%</t>
         </is>
       </c>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t>35,08%</t>
+          <t>38,28%</t>
         </is>
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t>40,79%</t>
+          <t>43,77%</t>
         </is>
       </c>
     </row>
@@ -4599,17 +4599,17 @@
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>98059</t>
+          <t>80403</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>98059</t>
+          <t>80403</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>98059</t>
+          <t>80403</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
@@ -4634,17 +4634,17 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>133339</t>
+          <t>126033</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>133339</t>
+          <t>126033</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
         <is>
-          <t>133339</t>
+          <t>126033</t>
         </is>
       </c>
       <c r="N38" s="2" t="inlineStr">
@@ -4669,17 +4669,17 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>231399</t>
+          <t>206436</t>
         </is>
       </c>
       <c r="S38" s="2" t="inlineStr">
         <is>
-          <t>231399</t>
+          <t>206436</t>
         </is>
       </c>
       <c r="T38" s="2" t="inlineStr">
         <is>
-          <t>231399</t>
+          <t>206436</t>
         </is>
       </c>
       <c r="U38" s="2" t="inlineStr">
@@ -4716,32 +4716,32 @@
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>66070</t>
+          <t>61446</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>59513</t>
+          <t>55328</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>73758</t>
+          <t>68365</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>9,26%</t>
+          <t>8,31%</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>8,34%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>10,33%</t>
+          <t>9,24%</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
@@ -4751,32 +4751,32 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>75110</t>
+          <t>70768</t>
         </is>
       </c>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>68355</t>
+          <t>63789</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
         <is>
-          <t>82159</t>
+          <t>77686</t>
         </is>
       </c>
       <c r="N39" s="2" t="inlineStr">
         <is>
-          <t>9,75%</t>
+          <t>8,71%</t>
         </is>
       </c>
       <c r="O39" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>7,85%</t>
         </is>
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>10,67%</t>
+          <t>9,56%</t>
         </is>
       </c>
       <c r="Q39" s="2" t="inlineStr">
@@ -4786,32 +4786,32 @@
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
-          <t>141180</t>
+          <t>132214</t>
         </is>
       </c>
       <c r="S39" s="2" t="inlineStr">
         <is>
-          <t>131528</t>
+          <t>123129</t>
         </is>
       </c>
       <c r="T39" s="2" t="inlineStr">
         <is>
-          <t>151819</t>
+          <t>142658</t>
         </is>
       </c>
       <c r="U39" s="2" t="inlineStr">
         <is>
-          <t>9,51%</t>
+          <t>8,52%</t>
         </is>
       </c>
       <c r="V39" s="2" t="inlineStr">
         <is>
-          <t>8,86%</t>
+          <t>7,93%</t>
         </is>
       </c>
       <c r="W39" s="2" t="inlineStr">
         <is>
-          <t>10,23%</t>
+          <t>9,19%</t>
         </is>
       </c>
     </row>
@@ -4829,32 +4829,32 @@
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>121764</t>
+          <t>116645</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>113058</t>
+          <t>107832</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>130544</t>
+          <t>125338</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>17,06%</t>
+          <t>15,77%</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>15,84%</t>
+          <t>14,58%</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>18,29%</t>
+          <t>16,94%</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
@@ -4864,32 +4864,32 @@
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>132125</t>
+          <t>127112</t>
         </is>
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>122540</t>
+          <t>118948</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
         <is>
-          <t>140562</t>
+          <t>136850</t>
         </is>
       </c>
       <c r="N40" s="2" t="inlineStr">
         <is>
-          <t>17,15%</t>
+          <t>15,65%</t>
         </is>
       </c>
       <c r="O40" s="2" t="inlineStr">
         <is>
-          <t>15,91%</t>
+          <t>14,64%</t>
         </is>
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>18,25%</t>
+          <t>16,85%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
@@ -4899,32 +4899,32 @@
       </c>
       <c r="R40" s="2" t="inlineStr">
         <is>
-          <t>253889</t>
+          <t>243757</t>
         </is>
       </c>
       <c r="S40" s="2" t="inlineStr">
         <is>
-          <t>241766</t>
+          <t>232413</t>
         </is>
       </c>
       <c r="T40" s="2" t="inlineStr">
         <is>
-          <t>268748</t>
+          <t>257134</t>
         </is>
       </c>
       <c r="U40" s="2" t="inlineStr">
         <is>
-          <t>17,11%</t>
+          <t>15,71%</t>
         </is>
       </c>
       <c r="V40" s="2" t="inlineStr">
         <is>
-          <t>16,29%</t>
+          <t>14,97%</t>
         </is>
       </c>
       <c r="W40" s="2" t="inlineStr">
         <is>
-          <t>18,11%</t>
+          <t>16,57%</t>
         </is>
       </c>
     </row>
@@ -4942,32 +4942,32 @@
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>258117</t>
+          <t>265274</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>247351</t>
+          <t>252562</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>269438</t>
+          <t>275904</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>36,16%</t>
+          <t>35,86%</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>34,65%</t>
+          <t>34,14%</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>37,75%</t>
+          <t>37,3%</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
@@ -4977,32 +4977,32 @@
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>269970</t>
+          <t>285124</t>
         </is>
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>259082</t>
+          <t>273453</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
         <is>
-          <t>284254</t>
+          <t>297669</t>
         </is>
       </c>
       <c r="N41" s="2" t="inlineStr">
         <is>
-          <t>35,05%</t>
+          <t>35,1%</t>
         </is>
       </c>
       <c r="O41" s="2" t="inlineStr">
         <is>
-          <t>33,64%</t>
+          <t>33,66%</t>
         </is>
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>36,91%</t>
+          <t>36,64%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
@@ -5012,32 +5012,32 @@
       </c>
       <c r="R41" s="2" t="inlineStr">
         <is>
-          <t>528087</t>
+          <t>550398</t>
         </is>
       </c>
       <c r="S41" s="2" t="inlineStr">
         <is>
-          <t>510082</t>
+          <t>534025</t>
         </is>
       </c>
       <c r="T41" s="2" t="inlineStr">
         <is>
-          <t>544868</t>
+          <t>568121</t>
         </is>
       </c>
       <c r="U41" s="2" t="inlineStr">
         <is>
-          <t>35,59%</t>
+          <t>35,46%</t>
         </is>
       </c>
       <c r="V41" s="2" t="inlineStr">
         <is>
-          <t>34,37%</t>
+          <t>34,41%</t>
         </is>
       </c>
       <c r="W41" s="2" t="inlineStr">
         <is>
-          <t>36,72%</t>
+          <t>36,6%</t>
         </is>
       </c>
     </row>
@@ -5055,32 +5055,32 @@
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>267821</t>
+          <t>296322</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>257083</t>
+          <t>284143</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>280064</t>
+          <t>309186</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>37,52%</t>
+          <t>40,06%</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>36,02%</t>
+          <t>38,41%</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>39,24%</t>
+          <t>41,8%</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
@@ -5090,32 +5090,32 @@
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>293022</t>
+          <t>329355</t>
         </is>
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>281573</t>
+          <t>317363</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>303960</t>
+          <t>341926</t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr">
         <is>
-          <t>38,04%</t>
+          <t>40,54%</t>
         </is>
       </c>
       <c r="O42" s="2" t="inlineStr">
         <is>
-          <t>36,56%</t>
+          <t>39,07%</t>
         </is>
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>39,46%</t>
+          <t>42,09%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
@@ -5125,32 +5125,32 @@
       </c>
       <c r="R42" s="2" t="inlineStr">
         <is>
-          <t>560844</t>
+          <t>625677</t>
         </is>
       </c>
       <c r="S42" s="2" t="inlineStr">
         <is>
-          <t>543475</t>
+          <t>607806</t>
         </is>
       </c>
       <c r="T42" s="2" t="inlineStr">
         <is>
-          <t>578141</t>
+          <t>641914</t>
         </is>
       </c>
       <c r="U42" s="2" t="inlineStr">
         <is>
-          <t>37,79%</t>
+          <t>40,31%</t>
         </is>
       </c>
       <c r="V42" s="2" t="inlineStr">
         <is>
-          <t>36,62%</t>
+          <t>39,16%</t>
         </is>
       </c>
       <c r="W42" s="2" t="inlineStr">
         <is>
-          <t>38,96%</t>
+          <t>41,36%</t>
         </is>
       </c>
     </row>
@@ -5168,17 +5168,17 @@
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>713772</t>
+          <t>739687</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>713772</t>
+          <t>739687</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>713772</t>
+          <t>739687</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
@@ -5203,17 +5203,17 @@
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>770227</t>
+          <t>812359</t>
         </is>
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>770227</t>
+          <t>812359</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
         <is>
-          <t>770227</t>
+          <t>812359</t>
         </is>
       </c>
       <c r="N43" s="2" t="inlineStr">
@@ -5238,17 +5238,17 @@
       </c>
       <c r="R43" s="2" t="inlineStr">
         <is>
-          <t>1483999</t>
+          <t>1552046</t>
         </is>
       </c>
       <c r="S43" s="2" t="inlineStr">
         <is>
-          <t>1483999</t>
+          <t>1552046</t>
         </is>
       </c>
       <c r="T43" s="2" t="inlineStr">
         <is>
-          <t>1483999</t>
+          <t>1552046</t>
         </is>
       </c>
       <c r="U43" s="2" t="inlineStr">
